--- a/www/IndicatorsPerCountry/Mauritius_GDPperCapita_TerritorialRef_1968_2012_CCode_480.xlsx
+++ b/www/IndicatorsPerCountry/Mauritius_GDPperCapita_TerritorialRef_1968_2012_CCode_480.xlsx
@@ -237,13 +237,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mauritius_GDPperCapita_TerritorialRef_1968_2012_CCode_480.xlsx
+++ b/www/IndicatorsPerCountry/Mauritius_GDPperCapita_TerritorialRef_1968_2012_CCode_480.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,178 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>2540</t>
-  </si>
-  <si>
-    <t>2528</t>
-  </si>
-  <si>
-    <t>2530</t>
-  </si>
-  <si>
-    <t>2587</t>
-  </si>
-  <si>
-    <t>2594</t>
-  </si>
-  <si>
-    <t>2613</t>
-  </si>
-  <si>
-    <t>2610</t>
-  </si>
-  <si>
-    <t>2685</t>
-  </si>
-  <si>
-    <t>2777</t>
-  </si>
-  <si>
-    <t>3319</t>
-  </si>
-  <si>
-    <t>3249</t>
-  </si>
-  <si>
-    <t>3629</t>
-  </si>
-  <si>
-    <t>3283</t>
-  </si>
-  <si>
-    <t>3302</t>
-  </si>
-  <si>
-    <t>3108</t>
-  </si>
-  <si>
-    <t>3180</t>
-  </si>
-  <si>
-    <t>2907</t>
-  </si>
-  <si>
-    <t>3006</t>
-  </si>
-  <si>
-    <t>2945</t>
-  </si>
-  <si>
-    <t>3047</t>
-  </si>
-  <si>
-    <t>3309</t>
-  </si>
-  <si>
-    <t>3680</t>
-  </si>
-  <si>
-    <t>4020</t>
-  </si>
-  <si>
-    <t>3969</t>
-  </si>
-  <si>
-    <t>4551</t>
-  </si>
-  <si>
-    <t>4768</t>
-  </si>
-  <si>
-    <t>4863</t>
-  </si>
-  <si>
-    <t>4943</t>
-  </si>
-  <si>
-    <t>4367</t>
-  </si>
-  <si>
-    <t>4550</t>
-  </si>
-  <si>
-    <t>4738</t>
-  </si>
-  <si>
-    <t>4708</t>
-  </si>
-  <si>
-    <t>4882</t>
-  </si>
-  <si>
-    <t>5179</t>
-  </si>
-  <si>
-    <t>5658</t>
-  </si>
-  <si>
-    <t>6184</t>
-  </si>
-  <si>
-    <t>6550</t>
-  </si>
-  <si>
-    <t>6783</t>
-  </si>
-  <si>
-    <t>7208.00152223</t>
-  </si>
-  <si>
-    <t>7596.85851661</t>
-  </si>
-  <si>
-    <t>7865.46843177</t>
-  </si>
-  <si>
-    <t>8286.79297172</t>
-  </si>
-  <si>
-    <t>8553.06907154</t>
-  </si>
-  <si>
-    <t>8758.67564764</t>
-  </si>
-  <si>
-    <t>9115.29897546</t>
-  </si>
-  <si>
-    <t>9552.83667871</t>
-  </si>
-  <si>
-    <t>10018.4464171</t>
-  </si>
-  <si>
-    <t>10437.0448604</t>
-  </si>
-  <si>
-    <t>10593.3561115</t>
-  </si>
-  <si>
-    <t>11232.3625611</t>
-  </si>
-  <si>
-    <t>11501.4178358</t>
-  </si>
-  <si>
-    <t>12182.5972724</t>
-  </si>
-  <si>
-    <t>12640.6284115</t>
-  </si>
-  <si>
-    <t>12957.6181928</t>
-  </si>
-  <si>
-    <t>13297.1657658</t>
-  </si>
-  <si>
-    <t>13740.8131504</t>
-  </si>
-  <si>
-    <t>14529.2417373</t>
+    <t>3942</t>
+  </si>
+  <si>
+    <t>4022</t>
+  </si>
+  <si>
+    <t>4002</t>
+  </si>
+  <si>
+    <t>4006</t>
+  </si>
+  <si>
+    <t>4095</t>
+  </si>
+  <si>
+    <t>4106</t>
+  </si>
+  <si>
+    <t>4136</t>
+  </si>
+  <si>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>4251</t>
+  </si>
+  <si>
+    <t>4396</t>
+  </si>
+  <si>
+    <t>5254</t>
+  </si>
+  <si>
+    <t>5144</t>
+  </si>
+  <si>
+    <t>5745</t>
+  </si>
+  <si>
+    <t>5196</t>
+  </si>
+  <si>
+    <t>5227</t>
+  </si>
+  <si>
+    <t>4921</t>
+  </si>
+  <si>
+    <t>5035</t>
+  </si>
+  <si>
+    <t>4602</t>
+  </si>
+  <si>
+    <t>4758</t>
+  </si>
+  <si>
+    <t>4662</t>
+  </si>
+  <si>
+    <t>4804</t>
+  </si>
+  <si>
+    <t>5128</t>
+  </si>
+  <si>
+    <t>5668</t>
+  </si>
+  <si>
+    <t>6038</t>
+  </si>
+  <si>
+    <t>6030</t>
+  </si>
+  <si>
+    <t>7264</t>
+  </si>
+  <si>
+    <t>7610</t>
+  </si>
+  <si>
+    <t>7763</t>
+  </si>
+  <si>
+    <t>7889</t>
+  </si>
+  <si>
+    <t>6970</t>
+  </si>
+  <si>
+    <t>7563</t>
+  </si>
+  <si>
+    <t>7516</t>
+  </si>
+  <si>
+    <t>7798</t>
+  </si>
+  <si>
+    <t>8265</t>
+  </si>
+  <si>
+    <t>9001</t>
+  </si>
+  <si>
+    <t>9840</t>
+  </si>
+  <si>
+    <t>10418</t>
+  </si>
+  <si>
+    <t>10806</t>
+  </si>
+  <si>
+    <t>11489</t>
+  </si>
+  <si>
+    <t>11643.3982010061</t>
+  </si>
+  <si>
+    <t>12002.3801502419</t>
+  </si>
+  <si>
+    <t>12228.8140797673</t>
+  </si>
+  <si>
+    <t>12381.0665741869</t>
+  </si>
+  <si>
+    <t>12567.9281929902</t>
+  </si>
+  <si>
+    <t>12841.9305308466</t>
+  </si>
+  <si>
+    <t>13198.2949202474</t>
+  </si>
+  <si>
+    <t>13607.8846500047</t>
+  </si>
+  <si>
+    <t>13572.6802812483</t>
+  </si>
+  <si>
+    <t>14272.3009237175</t>
+  </si>
+  <si>
+    <t>14347.6108176173</t>
+  </si>
+  <si>
+    <t>14196.040774451</t>
+  </si>
+  <si>
+    <t>14623.3085050732</t>
+  </si>
+  <si>
+    <t>14854.6136879255</t>
+  </si>
+  <si>
+    <t>14725.164159799</t>
+  </si>
+  <si>
+    <t>15042.5413976305</t>
+  </si>
+  <si>
+    <t>15519.4186473893</t>
+  </si>
+  <si>
+    <t>15957.9602249536</t>
+  </si>
+  <si>
+    <t>16029.2638862743</t>
+  </si>
+  <si>
+    <t>16269.3201536387</t>
+  </si>
+  <si>
+    <t>16483</t>
+  </si>
+  <si>
+    <t>16893</t>
+  </si>
+  <si>
+    <t>17311</t>
+  </si>
+  <si>
+    <t>17818</t>
+  </si>
+  <si>
+    <t>18322</t>
+  </si>
+  <si>
+    <t>18918</t>
   </si>
   <si>
     <t>Description</t>
@@ -852,7 +873,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -869,7 +890,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -886,7 +907,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36">
@@ -903,7 +924,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
@@ -920,7 +941,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
@@ -937,7 +958,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39">
@@ -954,7 +975,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -971,7 +992,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -988,7 +1009,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42">
@@ -1005,7 +1026,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43">
@@ -1022,7 +1043,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -1039,7 +1060,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
@@ -1056,7 +1077,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46">
@@ -1073,7 +1094,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47">
@@ -1090,7 +1111,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -1107,7 +1128,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1145,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1141,7 +1162,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51">
@@ -1158,7 +1179,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52">
@@ -1175,7 +1196,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53">
@@ -1192,7 +1213,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54">
@@ -1209,7 +1230,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55">
@@ -1226,7 +1247,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -1243,7 +1264,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -1260,7 +1281,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58">
@@ -1277,7 +1298,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59">
@@ -1294,7 +1315,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60">
@@ -1311,7 +1332,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>480.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1329,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
